--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_80.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,403 +488,420 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.08, 74.3)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(11.06, 66.82)]</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(53.46, 61.8)]</t>
+          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>schubert-winterreise_132</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07307692307692308</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(74.9, 93.84)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:32.920657', '0:00:39.410634')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4642857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(39.58, 46.78)]</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(44.2, 54.16)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[('0:00:38.900000', '0:00:47.160000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:42.160000', '0:01:53.900000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(67.0, 70.38), (16.02, 22.5)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(14.565283, 18.936988), (13.079206, 17.500916)]</t>
+          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:00:43.740000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -888,317 +910,266 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46)]</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(120.22, 121.92)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(68.08, 87.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
